--- a/pearson_tables/t2m_netherlands-3-6.xlsx
+++ b/pearson_tables/t2m_netherlands-3-6.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7925491387740223</v>
+        <v>0.773812157043043</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6758826187441508</v>
+        <v>-0.6716102162172155</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6667490419229933</v>
+        <v>0.6737542003636109</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7816879292040916</v>
+        <v>0.7734895351277546</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6796954391677593</v>
+        <v>-0.8074185313179805</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7556780968739292</v>
+        <v>0.7769351374832036</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7543590702083324</v>
+        <v>-0.6960891120842669</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7682505714736896</v>
+        <v>0.7959025124123852</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8268087123318993</v>
+        <v>-0.7452268809369937</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8504408882157346</v>
+        <v>0.811071421775988</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.7025261889899442</v>
+        <v>-0.7137521536241178</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6898108218751446</v>
+        <v>0.621472011254339</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8019045990401135</v>
+        <v>-0.7685360354389394</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6901923315316617</v>
+        <v>-0.7610006807898221</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8346558953486631</v>
+        <v>-0.6825160850545469</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7193061650031969</v>
+        <v>-0.6796641061219179</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5847433967598334</v>
+        <v>-0.6130205986050971</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5965071663675436</v>
+        <v>-0.6068112116314853</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7533791566558311</v>
+        <v>0.7203592411142159</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.5909875145316168</v>
+        <v>0.5948621725398051</v>
       </c>
       <c r="D8" t="n">
-        <v>0.70315394023987</v>
+        <v>-0.5957808337143961</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6852683244367023</v>
+        <v>0.6815708191199694</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.799618425216282</v>
+        <v>-0.7920251443836751</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6696309391444861</v>
+        <v>0.7304928071655132</v>
       </c>
     </row>
   </sheetData>

--- a/pearson_tables/t2m_netherlands-3-6.xlsx
+++ b/pearson_tables/t2m_netherlands-3-6.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.773812157043043</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6716102162172155</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6737542003636109</v>
+        <v>-0.7142215300419087</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7734895351277546</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.8074185313179805</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7769351374832036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6960891120842669</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7959025124123852</v>
+        <v>-0.7495068380493121</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.7452268809369937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.811071421775988</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.7137521536241178</v>
+        <v>-0.6600173190601064</v>
       </c>
       <c r="D5" t="n">
-        <v>0.621472011254339</v>
+        <v>0.7349814711053394</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7685360354389394</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.7610006807898221</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6825160850545469</v>
+        <v>0.8285788005719147</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.6796641061219179</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.6130205986050971</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6068112116314853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7203592411142159</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5948621725398051</v>
+        <v>-0.6925154799362028</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.5957808337143961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6815708191199694</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.7920251443836751</v>
+        <v>-0.8107899352968411</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7304928071655132</v>
+        <v>0.7074476980345612</v>
       </c>
     </row>
   </sheetData>
